--- a/REGULAR/MANALO, EDITHA T..xlsx
+++ b/REGULAR/MANALO, EDITHA T..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707B693-F5EE-4937-9DA4-DF01D33126B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A8C21E-E045-4715-8B37-C3BB04D41159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="338">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1040,6 +1040,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE VI</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
   </si>
 </sst>
 </file>
@@ -1421,6 +1430,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,9 +1468,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3824,9 +3833,9 @@
   <dimension ref="A2:K647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A606" activePane="bottomLeft"/>
-      <selection activeCell="E207" sqref="E207"/>
-      <selection pane="bottomLeft" activeCell="B615" sqref="B615"/>
+      <pane ySplit="3576" topLeftCell="A615" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="B619" sqref="B619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3848,58 +3857,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3925,18 +3940,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3983,7 +3998,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>154.58600000000001</v>
+        <v>157.08600000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3993,7 +4008,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>153.458</v>
+        <v>155.958</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17498,7 +17513,7 @@
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="62">
+      <c r="K611" s="50">
         <v>44858</v>
       </c>
     </row>
@@ -17520,7 +17535,7 @@
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="62">
+      <c r="K612" s="50">
         <v>44862</v>
       </c>
     </row>
@@ -17566,7 +17581,7 @@
       <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
-      <c r="K614" s="62">
+      <c r="K614" s="50">
         <v>44911</v>
       </c>
     </row>
@@ -17609,15 +17624,19 @@
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A617" s="40"/>
+      <c r="A617" s="40">
+        <v>44958</v>
+      </c>
       <c r="B617" s="20"/>
-      <c r="C617" s="13"/>
+      <c r="C617" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D617" s="39"/>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G617" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
@@ -17625,23 +17644,33 @@
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A618" s="40"/>
-      <c r="B618" s="20"/>
-      <c r="C618" s="13"/>
+      <c r="A618" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B618" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C618" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D618" s="39"/>
       <c r="E618" s="9"/>
       <c r="F618" s="20"/>
-      <c r="G618" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G618" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
-      <c r="K618" s="20"/>
+      <c r="K618" s="50">
+        <v>45014</v>
+      </c>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A619" s="40"/>
+      <c r="A619" s="40">
+        <v>45017</v>
+      </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
       <c r="D619" s="39"/>
@@ -17657,7 +17686,9 @@
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A620" s="40"/>
+      <c r="A620" s="40">
+        <v>45047</v>
+      </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
       <c r="D620" s="39"/>
@@ -17673,7 +17704,9 @@
       <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A621" s="40"/>
+      <c r="A621" s="40">
+        <v>45078</v>
+      </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
       <c r="D621" s="39"/>
@@ -17689,7 +17722,9 @@
       <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A622" s="40"/>
+      <c r="A622" s="40">
+        <v>45108</v>
+      </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -17705,7 +17740,9 @@
       <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A623" s="40"/>
+      <c r="A623" s="40">
+        <v>45139</v>
+      </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
@@ -17721,7 +17758,9 @@
       <c r="K623" s="20"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624" s="40"/>
+      <c r="A624" s="40">
+        <v>45170</v>
+      </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
@@ -17737,7 +17776,9 @@
       <c r="K624" s="20"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A625" s="40"/>
+      <c r="A625" s="40">
+        <v>45200</v>
+      </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
       <c r="D625" s="39"/>
@@ -17753,7 +17794,9 @@
       <c r="K625" s="20"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A626" s="40"/>
+      <c r="A626" s="40">
+        <v>45231</v>
+      </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
       <c r="D626" s="39"/>
@@ -17769,7 +17812,9 @@
       <c r="K626" s="20"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A627" s="40"/>
+      <c r="A627" s="40">
+        <v>45261</v>
+      </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
       <c r="D627" s="39"/>
@@ -17785,7 +17830,9 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A628" s="40"/>
+      <c r="A628" s="40">
+        <v>45292</v>
+      </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
       <c r="D628" s="39"/>
@@ -17801,7 +17848,9 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A629" s="40"/>
+      <c r="A629" s="40">
+        <v>45323</v>
+      </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -17817,7 +17866,9 @@
       <c r="K629" s="20"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A630" s="40"/>
+      <c r="A630" s="40">
+        <v>45352</v>
+      </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
       <c r="D630" s="39"/>
@@ -17833,7 +17884,9 @@
       <c r="K630" s="20"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A631" s="40"/>
+      <c r="A631" s="40">
+        <v>45383</v>
+      </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
       <c r="D631" s="39"/>
@@ -17849,7 +17902,9 @@
       <c r="K631" s="20"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A632" s="40"/>
+      <c r="A632" s="40">
+        <v>45413</v>
+      </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
       <c r="D632" s="39"/>
@@ -17865,7 +17920,9 @@
       <c r="K632" s="20"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A633" s="40"/>
+      <c r="A633" s="40">
+        <v>45444</v>
+      </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
       <c r="D633" s="39"/>
@@ -17881,7 +17938,9 @@
       <c r="K633" s="20"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A634" s="40"/>
+      <c r="A634" s="40">
+        <v>45474</v>
+      </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
       <c r="D634" s="39"/>
@@ -17897,7 +17956,9 @@
       <c r="K634" s="20"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A635" s="40"/>
+      <c r="A635" s="40">
+        <v>45505</v>
+      </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
@@ -17913,7 +17974,9 @@
       <c r="K635" s="20"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A636" s="40"/>
+      <c r="A636" s="40">
+        <v>45536</v>
+      </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
       <c r="D636" s="39"/>
@@ -18168,17 +18231,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -18265,12 +18328,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/MANALO, EDITHA T..xlsx
+++ b/REGULAR/MANALO, EDITHA T..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A8C21E-E045-4715-8B37-C3BB04D41159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="338">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1054,7 +1053,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1917,7 +1916,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1959,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2023,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2083,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2149,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2212,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2310,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2369,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2434,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2477,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2552,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2739,7 +2738,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2804,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2862,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2928,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2984,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3059,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3102,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3169,7 +3168,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3224,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3322,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,7 +3385,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,25 +3451,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K647" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K647" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3482,13 +3481,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3497,14 +3496,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3808,7 +3807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3818,7 +3817,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3826,34 +3825,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A615" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A615" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B619" sqref="B619"/>
+      <selection pane="bottomLeft" activeCell="B621" sqref="B621"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3874,7 +3873,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +3893,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3916,7 +3915,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3924,7 +3923,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3937,7 +3936,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3954,7 +3953,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3998,7 +3997,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>157.08600000000001</v>
+        <v>157.33600000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4008,12 +4007,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.958</v>
+        <v>157.208</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4034,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35827</v>
       </c>
@@ -4075,7 +4074,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35855</v>
       </c>
@@ -4095,7 +4094,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35886</v>
       </c>
@@ -4115,7 +4114,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35916</v>
       </c>
@@ -4135,7 +4134,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35947</v>
       </c>
@@ -4155,7 +4154,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35977</v>
       </c>
@@ -4175,7 +4174,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36008</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36039</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36069</v>
       </c>
@@ -4245,7 +4244,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -4265,7 +4264,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>49</v>
@@ -4285,7 +4284,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>51</v>
@@ -4305,7 +4304,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36100</v>
       </c>
@@ -4329,7 +4328,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -4349,7 +4348,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36130</v>
       </c>
@@ -4373,7 +4372,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>53</v>
@@ -4393,7 +4392,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>54</v>
@@ -4413,7 +4412,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>44</v>
       </c>
@@ -4435,7 +4434,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36161</v>
       </c>
@@ -4461,7 +4460,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -4481,7 +4480,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36192</v>
       </c>
@@ -4507,7 +4506,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>56</v>
@@ -4527,7 +4526,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36220</v>
       </c>
@@ -4551,7 +4550,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36251</v>
       </c>
@@ -4575,7 +4574,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36281</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36312</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -4647,7 +4646,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36342</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -4695,7 +4694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>60</v>
@@ -4717,7 +4716,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36373</v>
       </c>
@@ -4741,7 +4740,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36404</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36434</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -4811,7 +4810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36465</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36495</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>45</v>
       </c>
@@ -4885,7 +4884,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36526</v>
       </c>
@@ -4909,7 +4908,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36557</v>
       </c>
@@ -4933,7 +4932,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36586</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>69</v>
@@ -4981,7 +4980,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36617</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36647</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>49</v>
@@ -5055,7 +5054,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>71</v>
@@ -5075,7 +5074,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36678</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>57</v>
@@ -5121,7 +5120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36708</v>
       </c>
@@ -5143,7 +5142,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36739</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>59</v>
@@ -5191,7 +5190,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36770</v>
       </c>
@@ -5211,7 +5210,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36800</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>49</v>
@@ -5259,7 +5258,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>53</v>
@@ -5281,7 +5280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>73</v>
@@ -5301,7 +5300,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36831</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>74</v>
@@ -5349,7 +5348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36861</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>75</v>
@@ -5395,7 +5394,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>46</v>
       </c>
@@ -5417,7 +5416,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36892</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>78</v>
@@ -5461,7 +5460,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36923</v>
       </c>
@@ -5481,7 +5480,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36951</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>61</v>
@@ -5529,7 +5528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>79</v>
@@ -5551,7 +5550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>61</v>
@@ -5573,7 +5572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>84</v>
@@ -5593,7 +5592,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36982</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>49</v>
@@ -5641,7 +5640,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>57</v>
@@ -5661,7 +5660,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37012</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37043</v>
       </c>
@@ -5707,7 +5706,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37073</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37135</v>
       </c>
@@ -5779,7 +5778,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37165</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>49</v>
@@ -5827,7 +5826,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>53</v>
@@ -5849,7 +5848,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>49</v>
@@ -5871,7 +5870,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37196</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>59</v>
@@ -5919,7 +5918,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>88</v>
@@ -5937,7 +5936,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37226</v>
       </c>
@@ -5959,7 +5958,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>90</v>
       </c>
@@ -5977,7 +5976,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37257</v>
       </c>
@@ -5997,7 +5996,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37288</v>
       </c>
@@ -6023,7 +6022,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>59</v>
@@ -6045,7 +6044,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>99</v>
@@ -6067,7 +6066,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37316</v>
       </c>
@@ -6091,7 +6090,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37347</v>
       </c>
@@ -6115,7 +6114,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37377</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37408</v>
       </c>
@@ -6161,7 +6160,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37438</v>
       </c>
@@ -6181,7 +6180,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37469</v>
       </c>
@@ -6201,7 +6200,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37500</v>
       </c>
@@ -6221,7 +6220,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37530</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -6269,7 +6268,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -6291,7 +6290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>49</v>
@@ -6313,7 +6312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>57</v>
@@ -6335,7 +6334,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37561</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37591</v>
       </c>
@@ -6381,7 +6380,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>98</v>
       </c>
@@ -6403,7 +6402,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37622</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37653</v>
       </c>
@@ -6449,7 +6448,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37681</v>
       </c>
@@ -6473,7 +6472,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37712</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37742</v>
       </c>
@@ -6519,7 +6518,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37773</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>49</v>
@@ -6567,7 +6566,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37803</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37834</v>
       </c>
@@ -6609,7 +6608,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37865</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>105</v>
@@ -6655,7 +6654,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37895</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>37926</v>
       </c>
@@ -6705,7 +6704,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37956</v>
       </c>
@@ -6729,7 +6728,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>108</v>
@@ -6749,7 +6748,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>97</v>
       </c>
@@ -6771,7 +6770,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37987</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38018</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38047</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38078</v>
       </c>
@@ -6873,7 +6872,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38108</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>113</v>
@@ -6919,7 +6918,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38139</v>
       </c>
@@ -6939,7 +6938,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38169</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>57</v>
@@ -6985,7 +6984,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38200</v>
       </c>
@@ -7005,7 +7004,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38231</v>
       </c>
@@ -7025,7 +7024,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38261</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>59</v>
@@ -7073,7 +7072,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>117</v>
@@ -7093,7 +7092,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38292</v>
       </c>
@@ -7117,7 +7116,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="49"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38322</v>
       </c>
@@ -7143,7 +7142,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>49</v>
@@ -7165,7 +7164,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>49</v>
@@ -7187,7 +7186,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>120</v>
@@ -7207,7 +7206,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="49"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>96</v>
       </c>
@@ -7229,7 +7228,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38353</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>49</v>
@@ -7275,7 +7274,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>122</v>
@@ -7295,7 +7294,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38384</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>123</v>
@@ -7341,7 +7340,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38412</v>
       </c>
@@ -7365,7 +7364,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38443</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>68</v>
@@ -7411,7 +7410,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38473</v>
       </c>
@@ -7431,7 +7430,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38504</v>
       </c>
@@ -7455,7 +7454,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38534</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>126</v>
@@ -7501,7 +7500,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38565</v>
       </c>
@@ -7525,7 +7524,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38596</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>121</v>
@@ -7571,7 +7570,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>84</v>
@@ -7591,7 +7590,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38626</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>49</v>
@@ -7639,7 +7638,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7659,7 +7658,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>117</v>
@@ -7681,7 +7680,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38657</v>
       </c>
@@ -7705,7 +7704,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38687</v>
       </c>
@@ -7731,7 +7730,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>128</v>
@@ -7753,7 +7752,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>130</v>
@@ -7773,7 +7772,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>95</v>
       </c>
@@ -7795,7 +7794,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38718</v>
       </c>
@@ -7815,7 +7814,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>38749</v>
       </c>
@@ -7839,7 +7838,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38777</v>
       </c>
@@ -7863,7 +7862,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38808</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>132</v>
@@ -7907,7 +7906,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>38838</v>
       </c>
@@ -7931,7 +7930,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>106</v>
@@ -7951,7 +7950,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>38869</v>
       </c>
@@ -7971,7 +7970,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38899</v>
       </c>
@@ -7991,7 +7990,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38930</v>
       </c>
@@ -8015,7 +8014,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38961</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>68</v>
@@ -8059,7 +8058,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38991</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>133</v>
@@ -8105,7 +8104,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39022</v>
       </c>
@@ -8129,7 +8128,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39052</v>
       </c>
@@ -8155,7 +8154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>107</v>
@@ -8177,7 +8176,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>135</v>
@@ -8197,7 +8196,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>94</v>
       </c>
@@ -8219,7 +8218,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39083</v>
       </c>
@@ -8243,7 +8242,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>142</v>
@@ -8265,7 +8264,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39114</v>
       </c>
@@ -8287,7 +8286,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>143</v>
@@ -8309,7 +8308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39142</v>
       </c>
@@ -8333,7 +8332,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>121</v>
@@ -8351,7 +8350,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>121</v>
@@ -8371,7 +8370,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>144</v>
@@ -8393,7 +8392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39173</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>49</v>
@@ -8439,7 +8438,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>49</v>
@@ -8461,7 +8460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>61</v>
@@ -8483,7 +8482,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>146</v>
@@ -8505,7 +8504,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39203</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39234</v>
       </c>
@@ -8553,7 +8552,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>148</v>
@@ -8573,7 +8572,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>39264</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>149</v>
@@ -8619,7 +8618,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>150</v>
@@ -8641,7 +8640,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>151</v>
@@ -8663,7 +8662,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39295</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>61</v>
@@ -8711,7 +8710,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>162</v>
@@ -8733,7 +8732,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39326</v>
       </c>
@@ -8757,7 +8756,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>163</v>
@@ -8777,7 +8776,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>88</v>
@@ -8799,7 +8798,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39356</v>
       </c>
@@ -8819,7 +8818,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39387</v>
       </c>
@@ -8847,7 +8846,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39417</v>
       </c>
@@ -8871,7 +8870,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>93</v>
       </c>
@@ -8893,7 +8892,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39448</v>
       </c>
@@ -8917,7 +8916,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39479</v>
       </c>
@@ -8941,7 +8940,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39508</v>
       </c>
@@ -8965,7 +8964,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39539</v>
       </c>
@@ -8989,7 +8988,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39569</v>
       </c>
@@ -9013,7 +9012,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>39600</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>172</v>
@@ -9057,7 +9056,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39630</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>121</v>
@@ -9103,7 +9102,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>173</v>
@@ -9123,7 +9122,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39661</v>
       </c>
@@ -9147,7 +9146,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39692</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>177</v>
@@ -9193,7 +9192,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39722</v>
       </c>
@@ -9219,7 +9218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>178</v>
@@ -9239,7 +9238,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39753</v>
       </c>
@@ -9263,7 +9262,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>128</v>
@@ -9285,7 +9284,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>69</v>
@@ -9305,7 +9304,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39783</v>
       </c>
@@ -9329,7 +9328,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="48" t="s">
         <v>92</v>
       </c>
@@ -9351,7 +9350,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39814</v>
       </c>
@@ -9375,7 +9374,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>39845</v>
       </c>
@@ -9399,7 +9398,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>39873</v>
       </c>
@@ -9423,7 +9422,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39904</v>
       </c>
@@ -9447,7 +9446,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39934</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>121</v>
@@ -9493,7 +9492,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>185</v>
@@ -9513,7 +9512,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39965</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>128</v>
@@ -9559,7 +9558,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>107</v>
@@ -9581,7 +9580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>121</v>
@@ -9601,7 +9600,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>79</v>
@@ -9623,7 +9622,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>61</v>
@@ -9645,7 +9644,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>182</v>
@@ -9665,7 +9664,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39995</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>190</v>
@@ -9711,7 +9710,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40026</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>49</v>
@@ -9759,7 +9758,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>191</v>
@@ -9779,7 +9778,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40057</v>
       </c>
@@ -9803,7 +9802,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40087</v>
       </c>
@@ -9827,7 +9826,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40118</v>
       </c>
@@ -9851,7 +9850,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40148</v>
       </c>
@@ -9875,7 +9874,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="48" t="s">
         <v>91</v>
       </c>
@@ -9897,7 +9896,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>40179</v>
       </c>
@@ -9921,7 +9920,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40210</v>
       </c>
@@ -9945,7 +9944,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40238</v>
       </c>
@@ -9969,7 +9968,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40269</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>185</v>
@@ -10015,7 +10014,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>40299</v>
       </c>
@@ -10039,7 +10038,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40330</v>
       </c>
@@ -10065,7 +10064,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>202</v>
@@ -10085,7 +10084,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40360</v>
       </c>
@@ -10109,7 +10108,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40391</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>71</v>
@@ -10153,7 +10152,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>40422</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>204</v>
@@ -10199,7 +10198,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40452</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>205</v>
@@ -10245,7 +10244,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>57</v>
@@ -10265,7 +10264,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40483</v>
       </c>
@@ -10285,7 +10284,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>40513</v>
       </c>
@@ -10309,7 +10308,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>201</v>
       </c>
@@ -10331,7 +10330,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40544</v>
       </c>
@@ -10355,7 +10354,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>40575</v>
       </c>
@@ -10379,7 +10378,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40603</v>
       </c>
@@ -10403,7 +10402,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40634</v>
       </c>
@@ -10427,7 +10426,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>40664</v>
       </c>
@@ -10447,7 +10446,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40695</v>
       </c>
@@ -10471,7 +10470,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40725</v>
       </c>
@@ -10491,7 +10490,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40756</v>
       </c>
@@ -10515,7 +10514,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>211</v>
@@ -10535,7 +10534,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>40787</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>212</v>
@@ -10579,7 +10578,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>40817</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>128</v>
@@ -10627,7 +10626,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>128</v>
@@ -10649,7 +10648,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>121</v>
@@ -10669,7 +10668,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>49</v>
@@ -10691,7 +10690,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>213</v>
@@ -10711,7 +10710,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>40848</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>210</v>
@@ -10757,7 +10756,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>40878</v>
       </c>
@@ -10783,7 +10782,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>214</v>
@@ -10803,7 +10802,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>200</v>
       </c>
@@ -10825,7 +10824,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40909</v>
       </c>
@@ -10849,7 +10848,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>40940</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>121</v>
@@ -10893,7 +10892,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>121</v>
@@ -10913,7 +10912,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>219</v>
@@ -10933,7 +10932,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40969</v>
       </c>
@@ -10957,7 +10956,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41000</v>
       </c>
@@ -10981,7 +10980,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>68</v>
@@ -11003,7 +11002,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41030</v>
       </c>
@@ -11027,7 +11026,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>49</v>
@@ -11049,7 +11048,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>49</v>
@@ -11071,7 +11070,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>128</v>
@@ -11093,7 +11092,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>61</v>
@@ -11115,7 +11114,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>49</v>
@@ -11137,7 +11136,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>223</v>
@@ -11159,7 +11158,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41061</v>
       </c>
@@ -11187,7 +11186,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>49</v>
@@ -11209,7 +11208,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>224</v>
@@ -11231,7 +11230,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41091</v>
       </c>
@@ -11255,7 +11254,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11277,7 +11276,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>225</v>
@@ -11299,7 +11298,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41122</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>226</v>
@@ -11347,7 +11346,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41153</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>227</v>
@@ -11395,7 +11394,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>234</v>
@@ -11417,7 +11416,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>149</v>
@@ -11439,7 +11438,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>107</v>
@@ -11461,7 +11460,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>163</v>
@@ -11481,7 +11480,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41183</v>
       </c>
@@ -11501,7 +11500,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>41214</v>
       </c>
@@ -11521,7 +11520,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>41244</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>235</v>
@@ -11565,7 +11564,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="48" t="s">
         <v>199</v>
       </c>
@@ -11587,7 +11586,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41275</v>
       </c>
@@ -11611,7 +11610,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41306</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>128</v>
@@ -11659,7 +11658,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>41334</v>
       </c>
@@ -11683,7 +11682,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41365</v>
       </c>
@@ -11709,7 +11708,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>41395</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>128</v>
@@ -11755,7 +11754,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>121</v>
@@ -11775,7 +11774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>49</v>
@@ -11797,7 +11796,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>243</v>
@@ -11815,7 +11814,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="49"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>41426</v>
       </c>
@@ -11841,7 +11840,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>128</v>
@@ -11863,7 +11862,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -11885,7 +11884,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>244</v>
@@ -11905,7 +11904,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>41456</v>
       </c>
@@ -11929,7 +11928,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41487</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>61</v>
@@ -11977,7 +11976,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>246</v>
@@ -11997,7 +11996,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>41518</v>
       </c>
@@ -12023,7 +12022,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>128</v>
@@ -12045,7 +12044,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>247</v>
@@ -12065,7 +12064,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>41548</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12113,7 +12112,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>144</v>
@@ -12133,7 +12132,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>41579</v>
       </c>
@@ -12159,7 +12158,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>61</v>
@@ -12181,7 +12180,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>128</v>
@@ -12203,7 +12202,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>49</v>
@@ -12225,7 +12224,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>251</v>
@@ -12245,7 +12244,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41609</v>
       </c>
@@ -12271,7 +12270,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>163</v>
@@ -12291,7 +12290,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>252</v>
@@ -12311,7 +12310,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>198</v>
       </c>
@@ -12333,7 +12332,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41640</v>
       </c>
@@ -12353,7 +12352,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41671</v>
       </c>
@@ -12377,7 +12376,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41699</v>
       </c>
@@ -12401,7 +12400,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>128</v>
@@ -12421,7 +12420,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>128</v>
@@ -12441,7 +12440,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>61</v>
@@ -12461,7 +12460,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>255</v>
@@ -12481,7 +12480,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41730</v>
       </c>
@@ -12505,7 +12504,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>49</v>
@@ -12525,7 +12524,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>107</v>
@@ -12545,7 +12544,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>49</v>
@@ -12565,7 +12564,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>256</v>
@@ -12585,7 +12584,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41760</v>
       </c>
@@ -12609,7 +12608,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>121</v>
@@ -12627,7 +12626,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>121</v>
@@ -12645,7 +12644,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>257</v>
@@ -12665,7 +12664,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41791</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>258</v>
@@ -12709,7 +12708,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41821</v>
       </c>
@@ -12735,7 +12734,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>49</v>
@@ -12757,7 +12756,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>259</v>
@@ -12777,7 +12776,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41852</v>
       </c>
@@ -12803,7 +12802,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>203</v>
@@ -12823,7 +12822,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>41883</v>
       </c>
@@ -12849,7 +12848,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>128</v>
@@ -12871,7 +12870,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41913</v>
       </c>
@@ -12895,7 +12894,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>128</v>
@@ -12917,7 +12916,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>49</v>
@@ -12939,7 +12938,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>260</v>
@@ -12961,7 +12960,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>41944</v>
       </c>
@@ -12985,7 +12984,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>261</v>
@@ -13007,7 +13006,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>41974</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>262</v>
@@ -13053,7 +13052,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="48" t="s">
         <v>197</v>
       </c>
@@ -13075,7 +13074,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>42005</v>
       </c>
@@ -13099,7 +13098,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42036</v>
       </c>
@@ -13123,7 +13122,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42064</v>
       </c>
@@ -13149,7 +13148,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>121</v>
@@ -13169,7 +13168,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>49</v>
@@ -13191,7 +13190,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>61</v>
@@ -13213,7 +13212,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>61</v>
@@ -13235,7 +13234,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>273</v>
@@ -13255,7 +13254,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42095</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>49</v>
@@ -13303,7 +13302,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>59</v>
@@ -13325,7 +13324,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>162</v>
@@ -13345,7 +13344,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42125</v>
       </c>
@@ -13371,7 +13370,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>49</v>
@@ -13393,7 +13392,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>274</v>
@@ -13415,7 +13414,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>42156</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>275</v>
@@ -13461,7 +13460,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42186</v>
       </c>
@@ -13485,7 +13484,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>79</v>
@@ -13507,7 +13506,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>283</v>
@@ -13527,7 +13526,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42217</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13575,7 +13574,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>284</v>
@@ -13595,7 +13594,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42248</v>
       </c>
@@ -13619,7 +13618,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>42278</v>
       </c>
@@ -13645,7 +13644,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>49</v>
@@ -13667,7 +13666,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>286</v>
@@ -13687,7 +13686,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>42309</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>59</v>
@@ -13735,7 +13734,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>287</v>
@@ -13755,7 +13754,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>42339</v>
       </c>
@@ -13781,7 +13780,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>49</v>
@@ -13803,7 +13802,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>288</v>
@@ -13823,7 +13822,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="48" t="s">
         <v>272</v>
       </c>
@@ -13845,7 +13844,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42370</v>
       </c>
@@ -13869,7 +13868,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42401</v>
       </c>
@@ -13893,7 +13892,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42430</v>
       </c>
@@ -13919,7 +13918,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>290</v>
@@ -13939,7 +13938,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42461</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>121</v>
@@ -13983,7 +13982,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>53</v>
@@ -14005,7 +14004,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>292</v>
@@ -14025,7 +14024,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42491</v>
       </c>
@@ -14051,7 +14050,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -14073,7 +14072,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -14095,7 +14094,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>49</v>
@@ -14117,7 +14116,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>293</v>
@@ -14137,7 +14136,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42522</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>49</v>
@@ -14185,7 +14184,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>49</v>
@@ -14207,7 +14206,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>59</v>
@@ -14227,7 +14226,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>294</v>
@@ -14249,7 +14248,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42552</v>
       </c>
@@ -14273,7 +14272,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>42583</v>
       </c>
@@ -14299,7 +14298,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>49</v>
@@ -14321,7 +14320,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>295</v>
@@ -14341,7 +14340,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>42614</v>
       </c>
@@ -14367,7 +14366,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>49</v>
@@ -14389,7 +14388,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>129</v>
@@ -14409,7 +14408,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>42644</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>49</v>
@@ -14457,7 +14456,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>49</v>
@@ -14479,7 +14478,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>299</v>
@@ -14499,7 +14498,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42675</v>
       </c>
@@ -14523,7 +14522,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42705</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>301</v>
@@ -14569,7 +14568,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
         <v>271</v>
       </c>
@@ -14591,7 +14590,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>42736</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>124</v>
@@ -14633,7 +14632,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>42767</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>121</v>
@@ -14677,7 +14676,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>191</v>
@@ -14695,7 +14694,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42795</v>
       </c>
@@ -14721,7 +14720,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>121</v>
@@ -14741,7 +14740,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>61</v>
@@ -14763,7 +14762,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>305</v>
@@ -14783,7 +14782,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>42826</v>
       </c>
@@ -14809,7 +14808,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>61</v>
@@ -14831,7 +14830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>49</v>
@@ -14853,7 +14852,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>59</v>
@@ -14875,7 +14874,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>59</v>
@@ -14897,7 +14896,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>100</v>
@@ -14917,7 +14916,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>42856</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -14965,7 +14964,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>84</v>
@@ -14985,7 +14984,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>42887</v>
       </c>
@@ -15005,7 +15004,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>42917</v>
       </c>
@@ -15029,7 +15028,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>49</v>
@@ -15051,7 +15050,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>49</v>
@@ -15073,7 +15072,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>306</v>
@@ -15095,7 +15094,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>42948</v>
       </c>
@@ -15119,7 +15118,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>42979</v>
       </c>
@@ -15145,7 +15144,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>61</v>
@@ -15167,7 +15166,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>309</v>
@@ -15187,7 +15186,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43009</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>121</v>
@@ -15233,7 +15232,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>49</v>
@@ -15255,7 +15254,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>310</v>
@@ -15275,7 +15274,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43040</v>
       </c>
@@ -15301,7 +15300,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>59</v>
@@ -15323,7 +15322,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15345,7 +15344,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43070</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
         <v>270</v>
       </c>
@@ -15393,7 +15392,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43101</v>
       </c>
@@ -15419,7 +15418,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>49</v>
@@ -15441,7 +15440,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43132</v>
       </c>
@@ -15461,7 +15460,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43160</v>
       </c>
@@ -15487,7 +15486,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>121</v>
@@ -15507,7 +15506,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>49</v>
@@ -15529,7 +15528,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>49</v>
@@ -15551,7 +15550,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43191</v>
       </c>
@@ -15575,7 +15574,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>49</v>
@@ -15597,7 +15596,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43221</v>
       </c>
@@ -15621,7 +15620,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>49</v>
@@ -15643,7 +15642,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>49</v>
@@ -15665,7 +15664,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>68</v>
@@ -15687,7 +15686,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43252</v>
       </c>
@@ -15711,7 +15710,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>49</v>
@@ -15733,7 +15732,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>313</v>
@@ -15755,7 +15754,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43282</v>
       </c>
@@ -15781,7 +15780,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>49</v>
@@ -15803,7 +15802,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>314</v>
@@ -15823,7 +15822,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43313</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43344</v>
       </c>
@@ -15873,7 +15872,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>43374</v>
       </c>
@@ -15899,7 +15898,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>53</v>
@@ -15921,7 +15920,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>49</v>
@@ -15943,7 +15942,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>49</v>
@@ -15965,7 +15964,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>182</v>
@@ -15985,7 +15984,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>43405</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>319</v>
@@ -16031,7 +16030,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43435</v>
       </c>
@@ -16055,7 +16054,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>49</v>
@@ -16077,7 +16076,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>320</v>
@@ -16097,7 +16096,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>269</v>
       </c>
@@ -16119,7 +16118,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43466</v>
       </c>
@@ -16139,7 +16138,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43497</v>
       </c>
@@ -16159,7 +16158,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>43525</v>
       </c>
@@ -16179,7 +16178,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>43556</v>
       </c>
@@ -16199,7 +16198,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43586</v>
       </c>
@@ -16225,7 +16224,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>121</v>
@@ -16245,7 +16244,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>43617</v>
       </c>
@@ -16271,7 +16270,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>121</v>
@@ -16291,7 +16290,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>43647</v>
       </c>
@@ -16311,7 +16310,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>43678</v>
       </c>
@@ -16331,7 +16330,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43709</v>
       </c>
@@ -16351,7 +16350,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43739</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>53</v>
@@ -16399,7 +16398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>121</v>
@@ -16419,7 +16418,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>43770</v>
       </c>
@@ -16445,7 +16444,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>61</v>
@@ -16467,7 +16466,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43800</v>
       </c>
@@ -16487,7 +16486,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="48" t="s">
         <v>268</v>
       </c>
@@ -16509,7 +16508,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>43831</v>
       </c>
@@ -16533,7 +16532,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>43862</v>
       </c>
@@ -16553,7 +16552,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>43891</v>
       </c>
@@ -16573,7 +16572,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>43922</v>
       </c>
@@ -16593,7 +16592,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>43952</v>
       </c>
@@ -16613,7 +16612,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43983</v>
       </c>
@@ -16633,7 +16632,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44013</v>
       </c>
@@ -16653,7 +16652,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44044</v>
       </c>
@@ -16673,7 +16672,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44075</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>49</v>
@@ -16719,7 +16718,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>44105</v>
       </c>
@@ -16739,7 +16738,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>44136</v>
       </c>
@@ -16759,7 +16758,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>44166</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>49</v>
@@ -16807,7 +16806,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>59</v>
@@ -16829,7 +16828,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="48" t="s">
         <v>267</v>
       </c>
@@ -16851,7 +16850,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>44197</v>
       </c>
@@ -16871,7 +16870,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>44228</v>
       </c>
@@ -16891,7 +16890,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44256</v>
       </c>
@@ -16911,7 +16910,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44287</v>
       </c>
@@ -16931,7 +16930,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44317</v>
       </c>
@@ -16951,7 +16950,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44348</v>
       </c>
@@ -16971,7 +16970,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44378</v>
       </c>
@@ -16997,7 +16996,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44409</v>
       </c>
@@ -17017,7 +17016,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44440</v>
       </c>
@@ -17037,7 +17036,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44470</v>
       </c>
@@ -17063,7 +17062,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>59</v>
@@ -17085,7 +17084,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>44501</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>328</v>
@@ -17131,7 +17130,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>59</v>
@@ -17153,7 +17152,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>59</v>
@@ -17175,7 +17174,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>59</v>
@@ -17197,7 +17196,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>44531</v>
       </c>
@@ -17217,7 +17216,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="48" t="s">
         <v>266</v>
       </c>
@@ -17239,7 +17238,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>44562</v>
       </c>
@@ -17259,7 +17258,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44593</v>
       </c>
@@ -17279,7 +17278,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>44621</v>
       </c>
@@ -17299,7 +17298,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44652</v>
       </c>
@@ -17319,7 +17318,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44682</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>121</v>
@@ -17365,7 +17364,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>44713</v>
       </c>
@@ -17385,7 +17384,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>44743</v>
       </c>
@@ -17405,7 +17404,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>44774</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>121</v>
@@ -17451,7 +17450,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>59</v>
@@ -17473,7 +17472,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>44805</v>
       </c>
@@ -17493,7 +17492,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44835</v>
       </c>
@@ -17517,7 +17516,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>59</v>
@@ -17539,7 +17538,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44866</v>
       </c>
@@ -17559,7 +17558,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>44896</v>
       </c>
@@ -17585,7 +17584,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="48" t="s">
         <v>334</v>
       </c>
@@ -17603,7 +17602,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44927</v>
       </c>
@@ -17623,7 +17622,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44958</v>
       </c>
@@ -17643,7 +17642,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>44986</v>
       </c>
@@ -17667,31 +17666,41 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>45017</v>
       </c>
-      <c r="B619" s="20"/>
-      <c r="C619" s="13"/>
+      <c r="B619" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C619" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D619" s="39"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G619" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
-      <c r="K619" s="20"/>
-    </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K619" s="50">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>45047</v>
       </c>
-      <c r="B620" s="20"/>
+      <c r="B620" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C620" s="13"/>
-      <c r="D620" s="39"/>
+      <c r="D620" s="39">
+        <v>1</v>
+      </c>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
       <c r="G620" s="13" t="str">
@@ -17701,9 +17710,11 @@
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="20"/>
-    </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K620" s="50">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>45078</v>
       </c>
@@ -17721,7 +17732,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>45108</v>
       </c>
@@ -17739,7 +17750,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>45139</v>
       </c>
@@ -17757,7 +17768,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>45170</v>
       </c>
@@ -17775,7 +17786,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>45200</v>
       </c>
@@ -17793,7 +17804,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>45231</v>
       </c>
@@ -17811,7 +17822,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>45261</v>
       </c>
@@ -17829,7 +17840,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>45292</v>
       </c>
@@ -17847,7 +17858,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>45323</v>
       </c>
@@ -17865,7 +17876,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>45352</v>
       </c>
@@ -17883,7 +17894,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>45383</v>
       </c>
@@ -17901,7 +17912,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>45413</v>
       </c>
@@ -17919,7 +17930,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>45444</v>
       </c>
@@ -17937,7 +17948,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>45474</v>
       </c>
@@ -17955,7 +17966,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>45505</v>
       </c>
@@ -17973,7 +17984,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>45536</v>
       </c>
@@ -17991,7 +18002,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18007,7 +18018,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18023,7 +18034,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18039,7 +18050,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18055,7 +18066,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18071,7 +18082,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18087,7 +18098,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18103,7 +18114,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18119,7 +18130,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18135,7 +18146,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18151,7 +18162,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="41"/>
       <c r="B647" s="15"/>
       <c r="C647" s="42"/>
@@ -18182,10 +18193,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18208,7 +18219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18216,21 +18227,21 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -18243,7 +18254,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18272,7 +18283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -18304,17 +18315,17 @@
         <v>0.20799999999999974</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18335,7 +18346,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18362,7 +18373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18388,7 +18399,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18414,7 +18425,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18440,7 +18451,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18466,7 +18477,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18492,7 +18503,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18518,7 +18529,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18544,7 +18555,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18564,7 +18575,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18584,7 +18595,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18604,7 +18615,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18625,7 +18636,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18646,7 +18657,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18667,7 +18678,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18688,7 +18699,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18709,7 +18720,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18730,7 +18741,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18751,7 +18762,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18772,7 +18783,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18793,7 +18804,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18814,7 +18825,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18835,7 +18846,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18856,7 +18867,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18877,7 +18888,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18898,7 +18909,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18919,7 +18930,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18940,7 +18951,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18961,7 +18972,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18982,7 +18993,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19003,7 +19014,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19024,7 +19035,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19033,7 +19044,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19042,7 +19053,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19051,7 +19062,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19060,7 +19071,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19069,7 +19080,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19078,7 +19089,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19087,7 +19098,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19096,7 +19107,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19105,7 +19116,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19114,7 +19125,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19123,7 +19134,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19132,7 +19143,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19141,7 +19152,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19150,7 +19161,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19159,7 +19170,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19168,7 +19179,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19177,7 +19188,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19186,7 +19197,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19195,7 +19206,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19204,7 +19215,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19213,7 +19224,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19222,7 +19233,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19231,7 +19242,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19240,7 +19251,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19249,7 +19260,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19258,7 +19269,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19267,7 +19278,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19276,7 +19287,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19285,7 +19296,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MANALO, EDITHA T..xlsx
+++ b/REGULAR/MANALO, EDITHA T..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5325C0-0CC7-4CD1-8C4B-A170C9A69441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="340">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1048,12 +1049,18 @@
   </si>
   <si>
     <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>5/22-29/2023</t>
+  </si>
+  <si>
+    <t>QL(6-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1284,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,9 +1409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1916,7 +1920,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1963,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2027,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2087,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2153,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2216,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2314,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2373,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2438,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2481,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2556,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2742,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2808,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2866,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2932,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2988,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3063,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3106,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3172,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,7 +3228,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3326,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3389,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3438,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3451,25 +3455,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K647" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K628" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3481,13 +3485,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3496,14 +3500,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3807,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3817,7 +3821,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3825,97 +3829,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K647"/>
+  <dimension ref="A2:K628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A615" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A615" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
       <selection pane="bottomLeft" activeCell="B621" sqref="B621"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3923,7 +3927,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3936,24 +3940,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3997,7 +4001,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>157.33600000000001</v>
+        <v>158.58600000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4007,13 +4011,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>157.208</v>
+        <v>158.458</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -4034,7 +4038,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4054,7 +4058,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35827</v>
       </c>
@@ -4074,7 +4078,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35855</v>
       </c>
@@ -4094,7 +4098,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35886</v>
       </c>
@@ -4114,7 +4118,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35916</v>
       </c>
@@ -4134,7 +4138,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35947</v>
       </c>
@@ -4142,19 +4146,19 @@
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="G16" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="42"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35977</v>
       </c>
@@ -4174,7 +4178,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36008</v>
       </c>
@@ -4194,7 +4198,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36039</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36069</v>
       </c>
@@ -4244,7 +4248,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -4264,7 +4268,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>49</v>
@@ -4284,7 +4288,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>51</v>
@@ -4304,7 +4308,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36100</v>
       </c>
@@ -4328,7 +4332,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -4348,7 +4352,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36130</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>53</v>
@@ -4392,7 +4396,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>54</v>
@@ -4412,8 +4416,8 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="20"/>
@@ -4434,7 +4438,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36161</v>
       </c>
@@ -4456,11 +4460,11 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="49">
+      <c r="K30" s="48">
         <v>44930</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -4480,7 +4484,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36192</v>
       </c>
@@ -4502,11 +4506,11 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="49">
+      <c r="K32" s="48">
         <v>44968</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>56</v>
@@ -4526,7 +4530,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36220</v>
       </c>
@@ -4550,7 +4554,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36251</v>
       </c>
@@ -4574,7 +4578,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36281</v>
       </c>
@@ -4596,11 +4600,11 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="49">
+      <c r="K36" s="48">
         <v>45087</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36312</v>
       </c>
@@ -4622,11 +4626,11 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="49">
+      <c r="K37" s="48">
         <v>45092</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -4646,7 +4650,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36342</v>
       </c>
@@ -4668,11 +4672,11 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="49">
+      <c r="K39" s="48">
         <v>45114</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -4694,7 +4698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>60</v>
@@ -4712,11 +4716,11 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="49">
+      <c r="K41" s="48">
         <v>45130</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36373</v>
       </c>
@@ -4740,7 +4744,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36404</v>
       </c>
@@ -4758,11 +4762,11 @@
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="49">
+      <c r="K43" s="48">
         <v>45164</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36434</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -4810,7 +4814,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36465</v>
       </c>
@@ -4832,11 +4836,11 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="49">
+      <c r="K46" s="48">
         <v>45221</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36495</v>
       </c>
@@ -4862,8 +4866,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="20"/>
@@ -4884,7 +4888,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36526</v>
       </c>
@@ -4908,7 +4912,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36557</v>
       </c>
@@ -4932,7 +4936,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36586</v>
       </c>
@@ -4954,11 +4958,11 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="49">
+      <c r="K51" s="48">
         <v>44988</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>69</v>
@@ -4976,11 +4980,11 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="49">
+      <c r="K52" s="48">
         <v>45002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36617</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36647</v>
       </c>
@@ -5028,11 +5032,11 @@
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="49">
+      <c r="K54" s="48">
         <v>45051</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>49</v>
@@ -5050,11 +5054,11 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="49">
+      <c r="K55" s="48">
         <v>45068</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>71</v>
@@ -5074,7 +5078,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36678</v>
       </c>
@@ -5096,11 +5100,11 @@
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="49">
+      <c r="K57" s="48">
         <v>45078</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>57</v>
@@ -5120,7 +5124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36708</v>
       </c>
@@ -5142,7 +5146,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36739</v>
       </c>
@@ -5164,11 +5168,11 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="49">
+      <c r="K60" s="48">
         <v>45149</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>59</v>
@@ -5186,11 +5190,11 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="49">
+      <c r="K61" s="48">
         <v>45170</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36770</v>
       </c>
@@ -5210,7 +5214,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>36800</v>
       </c>
@@ -5232,11 +5236,11 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="49">
+      <c r="K63" s="48">
         <v>45203</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>49</v>
@@ -5254,11 +5258,11 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="49">
+      <c r="K64" s="48">
         <v>45202</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>53</v>
@@ -5280,7 +5284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>73</v>
@@ -5300,7 +5304,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36831</v>
       </c>
@@ -5322,11 +5326,11 @@
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="49">
+      <c r="K67" s="48">
         <v>45243</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>74</v>
@@ -5348,7 +5352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>36861</v>
       </c>
@@ -5370,11 +5374,11 @@
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="49">
+      <c r="K69" s="48">
         <v>45272</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>75</v>
@@ -5394,8 +5398,8 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B71" s="20"/>
@@ -5416,7 +5420,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36892</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>78</v>
@@ -5456,11 +5460,11 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="49">
+      <c r="K73" s="48">
         <v>44935</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>36923</v>
       </c>
@@ -5480,7 +5484,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>36951</v>
       </c>
@@ -5502,11 +5506,11 @@
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="49">
+      <c r="K75" s="48">
         <v>44991</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>61</v>
@@ -5528,7 +5532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>79</v>
@@ -5550,7 +5554,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>61</v>
@@ -5572,7 +5576,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>84</v>
@@ -5592,7 +5596,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36982</v>
       </c>
@@ -5614,11 +5618,11 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="49">
+      <c r="K80" s="48">
         <v>45032</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>49</v>
@@ -5636,11 +5640,11 @@
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49">
+      <c r="K81" s="48">
         <v>45040</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>57</v>
@@ -5660,7 +5664,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37012</v>
       </c>
@@ -5682,11 +5686,11 @@
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
+      <c r="K83" s="48">
         <v>45053</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37043</v>
       </c>
@@ -5706,7 +5710,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37073</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -5750,11 +5754,11 @@
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49">
+      <c r="K86" s="48">
         <v>45141</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37135</v>
       </c>
@@ -5778,7 +5782,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37165</v>
       </c>
@@ -5800,11 +5804,11 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49">
+      <c r="K88" s="48">
         <v>45219</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>49</v>
@@ -5822,11 +5826,11 @@
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="49">
+      <c r="K89" s="48">
         <v>45214</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>53</v>
@@ -5848,7 +5852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>49</v>
@@ -5866,11 +5870,11 @@
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49">
+      <c r="K91" s="48">
         <v>45224</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37196</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>59</v>
@@ -5914,11 +5918,11 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="49">
+      <c r="K93" s="48">
         <v>45267</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>88</v>
@@ -5934,9 +5938,9 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="48"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37226</v>
       </c>
@@ -5958,8 +5962,8 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="47" t="s">
         <v>90</v>
       </c>
       <c r="B96" s="20"/>
@@ -5976,7 +5980,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37257</v>
       </c>
@@ -5996,7 +6000,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37288</v>
       </c>
@@ -6018,11 +6022,11 @@
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="49">
+      <c r="K98" s="48">
         <v>44983</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>59</v>
@@ -6044,7 +6048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>99</v>
@@ -6062,11 +6066,11 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="49">
+      <c r="K100" s="48">
         <v>44996</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37316</v>
       </c>
@@ -6090,7 +6094,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37347</v>
       </c>
@@ -6114,7 +6118,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37377</v>
       </c>
@@ -6136,11 +6140,11 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="49">
+      <c r="K103" s="48">
         <v>45019</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>37408</v>
       </c>
@@ -6160,7 +6164,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37438</v>
       </c>
@@ -6180,7 +6184,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37469</v>
       </c>
@@ -6200,7 +6204,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37500</v>
       </c>
@@ -6220,7 +6224,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37530</v>
       </c>
@@ -6242,11 +6246,11 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="49">
+      <c r="K108" s="48">
         <v>45200</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -6264,11 +6268,11 @@
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="49">
+      <c r="K109" s="48">
         <v>45203</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>53</v>
@@ -6286,11 +6290,11 @@
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="49" t="s">
+      <c r="K110" s="48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>49</v>
@@ -6308,11 +6312,11 @@
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="49" t="s">
+      <c r="K111" s="48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>57</v>
@@ -6330,11 +6334,11 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="49">
+      <c r="K112" s="48">
         <v>45218</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>37561</v>
       </c>
@@ -6356,11 +6360,11 @@
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="49">
+      <c r="K113" s="48">
         <v>45271</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37591</v>
       </c>
@@ -6380,8 +6384,8 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="48" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="47" t="s">
         <v>98</v>
       </c>
       <c r="B115" s="20"/>
@@ -6402,7 +6406,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37622</v>
       </c>
@@ -6424,11 +6428,11 @@
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="49">
+      <c r="K116" s="48">
         <v>44971</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37653</v>
       </c>
@@ -6448,7 +6452,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37681</v>
       </c>
@@ -6472,7 +6476,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37712</v>
       </c>
@@ -6494,11 +6498,11 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="49">
+      <c r="K119" s="48">
         <v>44993</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>37742</v>
       </c>
@@ -6518,7 +6522,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37773</v>
       </c>
@@ -6540,11 +6544,11 @@
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="49">
+      <c r="K121" s="48">
         <v>45083</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>49</v>
@@ -6562,11 +6566,11 @@
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="49">
+      <c r="K122" s="48">
         <v>45096</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37803</v>
       </c>
@@ -6588,7 +6592,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37834</v>
       </c>
@@ -6608,7 +6612,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37865</v>
       </c>
@@ -6630,11 +6634,11 @@
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="49">
+      <c r="K125" s="48">
         <v>45181</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>105</v>
@@ -6654,7 +6658,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37895</v>
       </c>
@@ -6680,7 +6684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>37926</v>
       </c>
@@ -6704,7 +6708,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37956</v>
       </c>
@@ -6728,7 +6732,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>108</v>
@@ -6748,8 +6752,8 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="48" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="47" t="s">
         <v>97</v>
       </c>
       <c r="B131" s="20"/>
@@ -6770,7 +6774,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>37987</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38018</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>38047</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>38078</v>
       </c>
@@ -6872,7 +6876,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38108</v>
       </c>
@@ -6894,11 +6898,11 @@
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="49">
+      <c r="K136" s="48">
         <v>45095</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>113</v>
@@ -6918,7 +6922,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38139</v>
       </c>
@@ -6938,7 +6942,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>38169</v>
       </c>
@@ -6960,11 +6964,11 @@
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="49">
+      <c r="K139" s="48">
         <v>45134</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>57</v>
@@ -6984,7 +6988,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>38200</v>
       </c>
@@ -7004,7 +7008,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>38231</v>
       </c>
@@ -7024,7 +7028,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>38261</v>
       </c>
@@ -7046,11 +7050,11 @@
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="49">
+      <c r="K143" s="48">
         <v>45214</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>59</v>
@@ -7072,7 +7076,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>117</v>
@@ -7092,7 +7096,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>38292</v>
       </c>
@@ -7114,9 +7118,9 @@
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="49"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="48"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38322</v>
       </c>
@@ -7138,11 +7142,11 @@
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="49">
+      <c r="K147" s="48">
         <v>45273</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>49</v>
@@ -7160,11 +7164,11 @@
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="49">
+      <c r="K148" s="48">
         <v>45281</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>49</v>
@@ -7182,11 +7186,11 @@
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="49">
+      <c r="K149" s="48">
         <v>45288</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>120</v>
@@ -7204,10 +7208,10 @@
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="49"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="48" t="s">
+      <c r="K150" s="48"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="47" t="s">
         <v>96</v>
       </c>
       <c r="B151" s="20"/>
@@ -7228,7 +7232,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38353</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>49</v>
@@ -7270,11 +7274,11 @@
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="49">
+      <c r="K153" s="48">
         <v>44945</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>122</v>
@@ -7294,7 +7298,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38384</v>
       </c>
@@ -7316,11 +7320,11 @@
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="49">
+      <c r="K155" s="48">
         <v>44985</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>123</v>
@@ -7340,7 +7344,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>38412</v>
       </c>
@@ -7364,7 +7368,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38443</v>
       </c>
@@ -7386,11 +7390,11 @@
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="49">
+      <c r="K158" s="48">
         <v>45035</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>68</v>
@@ -7410,7 +7414,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38473</v>
       </c>
@@ -7430,7 +7434,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38504</v>
       </c>
@@ -7454,7 +7458,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>38534</v>
       </c>
@@ -7476,11 +7480,11 @@
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="49">
+      <c r="K162" s="48">
         <v>45125</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>126</v>
@@ -7500,7 +7504,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38565</v>
       </c>
@@ -7524,7 +7528,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38596</v>
       </c>
@@ -7546,11 +7550,11 @@
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="49">
+      <c r="K165" s="48">
         <v>45182</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>121</v>
@@ -7570,7 +7574,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>84</v>
@@ -7590,7 +7594,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38626</v>
       </c>
@@ -7612,11 +7616,11 @@
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="49">
+      <c r="K168" s="48">
         <v>45223</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>49</v>
@@ -7634,11 +7638,11 @@
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="49">
+      <c r="K169" s="48">
         <v>45227</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7658,7 +7662,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>117</v>
@@ -7676,11 +7680,11 @@
       <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="49">
+      <c r="K171" s="48">
         <v>45255</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>38657</v>
       </c>
@@ -7704,7 +7708,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38687</v>
       </c>
@@ -7726,11 +7730,11 @@
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="49">
+      <c r="K173" s="48">
         <v>45271</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>128</v>
@@ -7748,11 +7752,11 @@
       <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="49">
+      <c r="K174" s="48">
         <v>45289</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>130</v>
@@ -7772,8 +7776,8 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="48" t="s">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B176" s="20"/>
@@ -7794,7 +7798,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38718</v>
       </c>
@@ -7814,7 +7818,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>38749</v>
       </c>
@@ -7838,7 +7842,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38777</v>
       </c>
@@ -7862,7 +7866,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38808</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>132</v>
@@ -7906,7 +7910,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>38838</v>
       </c>
@@ -7930,7 +7934,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>106</v>
@@ -7950,7 +7954,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>38869</v>
       </c>
@@ -7970,7 +7974,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>38899</v>
       </c>
@@ -7990,7 +7994,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38930</v>
       </c>
@@ -8014,7 +8018,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38961</v>
       </c>
@@ -8038,7 +8042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>68</v>
@@ -8058,7 +8062,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38991</v>
       </c>
@@ -8080,11 +8084,11 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="49">
+      <c r="K189" s="48">
         <v>45225</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>133</v>
@@ -8104,7 +8108,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39022</v>
       </c>
@@ -8128,7 +8132,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>39052</v>
       </c>
@@ -8154,7 +8158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>107</v>
@@ -8176,7 +8180,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>135</v>
@@ -8196,8 +8200,8 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="48" t="s">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="47" t="s">
         <v>94</v>
       </c>
       <c r="B195" s="20"/>
@@ -8218,7 +8222,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>39083</v>
       </c>
@@ -8242,7 +8246,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>142</v>
@@ -8264,7 +8268,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>39114</v>
       </c>
@@ -8286,7 +8290,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>143</v>
@@ -8308,7 +8312,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>39142</v>
       </c>
@@ -8332,7 +8336,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>121</v>
@@ -8350,7 +8354,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>121</v>
@@ -8370,7 +8374,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>144</v>
@@ -8392,7 +8396,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>39173</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>49</v>
@@ -8438,7 +8442,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>49</v>
@@ -8460,7 +8464,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>61</v>
@@ -8478,11 +8482,11 @@
       </c>
       <c r="I207" s="9"/>
       <c r="J207" s="11"/>
-      <c r="K207" s="49">
+      <c r="K207" s="48">
         <v>45033</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>146</v>
@@ -8500,11 +8504,11 @@
       <c r="H208" s="39"/>
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
-      <c r="K208" s="49">
+      <c r="K208" s="48">
         <v>45028</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39203</v>
       </c>
@@ -8528,7 +8532,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39234</v>
       </c>
@@ -8552,7 +8556,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>148</v>
@@ -8572,7 +8576,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>39264</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>149</v>
@@ -8618,7 +8622,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>150</v>
@@ -8636,11 +8640,11 @@
       </c>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="49">
+      <c r="K214" s="48">
         <v>45112</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>151</v>
@@ -8662,7 +8666,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>39295</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>61</v>
@@ -8706,11 +8710,11 @@
       </c>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="49">
+      <c r="K217" s="48">
         <v>45098</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>162</v>
@@ -8732,7 +8736,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39326</v>
       </c>
@@ -8756,7 +8760,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>163</v>
@@ -8776,7 +8780,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>88</v>
@@ -8798,7 +8802,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39356</v>
       </c>
@@ -8818,7 +8822,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39387</v>
       </c>
@@ -8846,7 +8850,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39417</v>
       </c>
@@ -8870,8 +8874,8 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="48" t="s">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B225" s="20"/>
@@ -8892,7 +8896,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39448</v>
       </c>
@@ -8916,7 +8920,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39479</v>
       </c>
@@ -8940,7 +8944,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39508</v>
       </c>
@@ -8964,7 +8968,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39539</v>
       </c>
@@ -8988,7 +8992,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39569</v>
       </c>
@@ -9012,7 +9016,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>39600</v>
       </c>
@@ -9036,7 +9040,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>172</v>
@@ -9056,7 +9060,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39630</v>
       </c>
@@ -9078,11 +9082,11 @@
       <c r="H233" s="39"/>
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
-      <c r="K233" s="49">
+      <c r="K233" s="48">
         <v>45135</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>121</v>
@@ -9102,7 +9106,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>173</v>
@@ -9122,7 +9126,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>39661</v>
       </c>
@@ -9146,7 +9150,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39692</v>
       </c>
@@ -9168,11 +9172,11 @@
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="49">
+      <c r="K237" s="48">
         <v>45198</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>177</v>
@@ -9192,7 +9196,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39722</v>
       </c>
@@ -9218,7 +9222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>178</v>
@@ -9238,7 +9242,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>39753</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>128</v>
@@ -9280,11 +9284,11 @@
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="49">
+      <c r="K242" s="48">
         <v>45264</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>69</v>
@@ -9304,7 +9308,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39783</v>
       </c>
@@ -9328,8 +9332,8 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="48" t="s">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="47" t="s">
         <v>92</v>
       </c>
       <c r="B245" s="20"/>
@@ -9350,7 +9354,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>39814</v>
       </c>
@@ -9374,7 +9378,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>39845</v>
       </c>
@@ -9398,7 +9402,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>39873</v>
       </c>
@@ -9422,7 +9426,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>39904</v>
       </c>
@@ -9446,7 +9450,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>39934</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>121</v>
@@ -9492,7 +9496,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>185</v>
@@ -9512,7 +9516,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39965</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>128</v>
@@ -9554,11 +9558,11 @@
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="49">
+      <c r="K254" s="48">
         <v>45093</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>107</v>
@@ -9580,7 +9584,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>121</v>
@@ -9600,7 +9604,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>79</v>
@@ -9622,7 +9626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>61</v>
@@ -9644,7 +9648,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>182</v>
@@ -9664,7 +9668,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39995</v>
       </c>
@@ -9686,11 +9690,11 @@
       </c>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
-      <c r="K260" s="49">
+      <c r="K260" s="48">
         <v>45128</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>190</v>
@@ -9710,7 +9714,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>40026</v>
       </c>
@@ -9732,11 +9736,11 @@
       </c>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
-      <c r="K262" s="49">
+      <c r="K262" s="48">
         <v>45151</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>49</v>
@@ -9754,11 +9758,11 @@
       </c>
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
-      <c r="K263" s="49">
+      <c r="K263" s="48">
         <v>45148</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>191</v>
@@ -9778,7 +9782,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40057</v>
       </c>
@@ -9802,7 +9806,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40087</v>
       </c>
@@ -9826,7 +9830,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>40118</v>
       </c>
@@ -9850,7 +9854,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40148</v>
       </c>
@@ -9874,8 +9878,8 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="48" t="s">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="47" t="s">
         <v>91</v>
       </c>
       <c r="B269" s="20"/>
@@ -9896,7 +9900,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>40179</v>
       </c>
@@ -9920,7 +9924,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40210</v>
       </c>
@@ -9944,7 +9948,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40238</v>
       </c>
@@ -9968,7 +9972,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40269</v>
       </c>
@@ -9990,11 +9994,11 @@
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
       <c r="J273" s="11"/>
-      <c r="K273" s="49">
+      <c r="K273" s="48">
         <v>45064</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>185</v>
@@ -10014,7 +10018,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>40299</v>
       </c>
@@ -10038,7 +10042,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>40330</v>
       </c>
@@ -10060,11 +10064,11 @@
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
-      <c r="K276" s="49">
+      <c r="K276" s="48">
         <v>45088</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>202</v>
@@ -10084,7 +10088,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>40360</v>
       </c>
@@ -10108,7 +10112,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40391</v>
       </c>
@@ -10132,7 +10136,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>71</v>
@@ -10152,7 +10156,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>40422</v>
       </c>
@@ -10174,11 +10178,11 @@
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
-      <c r="K281" s="49">
+      <c r="K281" s="48">
         <v>45198</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>204</v>
@@ -10198,7 +10202,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>40452</v>
       </c>
@@ -10220,11 +10224,11 @@
       <c r="H283" s="39"/>
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
-      <c r="K283" s="49">
+      <c r="K283" s="48">
         <v>45226</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>205</v>
@@ -10244,7 +10248,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>57</v>
@@ -10264,7 +10268,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40483</v>
       </c>
@@ -10284,7 +10288,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>40513</v>
       </c>
@@ -10308,8 +10312,8 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="48" t="s">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="47" t="s">
         <v>201</v>
       </c>
       <c r="B288" s="20"/>
@@ -10330,7 +10334,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>40544</v>
       </c>
@@ -10354,7 +10358,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>40575</v>
       </c>
@@ -10378,7 +10382,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40603</v>
       </c>
@@ -10402,7 +10406,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40634</v>
       </c>
@@ -10426,7 +10430,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>40664</v>
       </c>
@@ -10446,7 +10450,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40695</v>
       </c>
@@ -10470,7 +10474,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40725</v>
       </c>
@@ -10490,7 +10494,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40756</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>211</v>
@@ -10534,7 +10538,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>40787</v>
       </c>
@@ -10558,7 +10562,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>212</v>
@@ -10578,7 +10582,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>40817</v>
       </c>
@@ -10600,11 +10604,11 @@
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="49">
+      <c r="K300" s="48">
         <v>45204</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>128</v>
@@ -10622,11 +10626,11 @@
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
-      <c r="K301" s="49">
+      <c r="K301" s="48">
         <v>45223</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>128</v>
@@ -10644,11 +10648,11 @@
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
-      <c r="K302" s="49">
+      <c r="K302" s="48">
         <v>45217</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>121</v>
@@ -10668,7 +10672,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>49</v>
@@ -10686,11 +10690,11 @@
       </c>
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
-      <c r="K304" s="49">
+      <c r="K304" s="48">
         <v>45220</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>213</v>
@@ -10710,7 +10714,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40848</v>
       </c>
@@ -10732,11 +10736,11 @@
       <c r="H306" s="39"/>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
-      <c r="K306" s="49">
+      <c r="K306" s="48">
         <v>45259</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>210</v>
@@ -10756,7 +10760,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>40878</v>
       </c>
@@ -10778,11 +10782,11 @@
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="49">
+      <c r="K308" s="48">
         <v>45288</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>214</v>
@@ -10802,8 +10806,8 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="48" t="s">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="47" t="s">
         <v>200</v>
       </c>
       <c r="B310" s="20"/>
@@ -10824,7 +10828,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40909</v>
       </c>
@@ -10848,7 +10852,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>40940</v>
       </c>
@@ -10872,7 +10876,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>121</v>
@@ -10892,7 +10896,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>121</v>
@@ -10908,11 +10912,11 @@
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="49">
+      <c r="K314" s="48">
         <v>44997</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>219</v>
@@ -10932,7 +10936,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40969</v>
       </c>
@@ -10956,7 +10960,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>41000</v>
       </c>
@@ -10980,7 +10984,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>68</v>
@@ -10998,11 +11002,11 @@
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
-      <c r="K318" s="49">
+      <c r="K318" s="48">
         <v>45041</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41030</v>
       </c>
@@ -11026,7 +11030,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>49</v>
@@ -11044,11 +11048,11 @@
       </c>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="49">
+      <c r="K320" s="48">
         <v>45061</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>49</v>
@@ -11066,11 +11070,11 @@
       </c>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="49">
+      <c r="K321" s="48">
         <v>45063</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>128</v>
@@ -11088,11 +11092,11 @@
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="49">
+      <c r="K322" s="48">
         <v>45067</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>61</v>
@@ -11110,11 +11114,11 @@
       </c>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="49">
+      <c r="K323" s="48">
         <v>45082</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>49</v>
@@ -11136,7 +11140,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>223</v>
@@ -11154,11 +11158,11 @@
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="49">
+      <c r="K325" s="48">
         <v>45077</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>41061</v>
       </c>
@@ -11186,7 +11190,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>49</v>
@@ -11208,7 +11212,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>224</v>
@@ -11226,11 +11230,11 @@
       <c r="H328" s="39"/>
       <c r="I328" s="34"/>
       <c r="J328" s="11"/>
-      <c r="K328" s="49">
+      <c r="K328" s="48">
         <v>45110</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>41091</v>
       </c>
@@ -11254,7 +11258,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11272,11 +11276,11 @@
       </c>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="49">
+      <c r="K330" s="48">
         <v>45125</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>225</v>
@@ -11294,11 +11298,11 @@
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="49">
+      <c r="K331" s="48">
         <v>45137</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>41122</v>
       </c>
@@ -11324,7 +11328,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>226</v>
@@ -11346,7 +11350,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>41153</v>
       </c>
@@ -11372,7 +11376,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>227</v>
@@ -11394,7 +11398,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>234</v>
@@ -11416,7 +11420,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>149</v>
@@ -11438,7 +11442,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>107</v>
@@ -11460,7 +11464,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>163</v>
@@ -11480,7 +11484,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41183</v>
       </c>
@@ -11500,7 +11504,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>41214</v>
       </c>
@@ -11520,7 +11524,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>41244</v>
       </c>
@@ -11540,11 +11544,11 @@
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
-      <c r="K342" s="49">
+      <c r="K342" s="48">
         <v>45278</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>235</v>
@@ -11564,8 +11568,8 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="48" t="s">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="47" t="s">
         <v>199</v>
       </c>
       <c r="B344" s="20"/>
@@ -11586,7 +11590,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>41275</v>
       </c>
@@ -11610,7 +11614,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>41306</v>
       </c>
@@ -11632,11 +11636,11 @@
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
-      <c r="K346" s="49">
+      <c r="K346" s="48">
         <v>44984</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>128</v>
@@ -11654,11 +11658,11 @@
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
-      <c r="K347" s="49">
+      <c r="K347" s="48">
         <v>44996</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>41334</v>
       </c>
@@ -11682,7 +11686,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>41365</v>
       </c>
@@ -11704,11 +11708,11 @@
       </c>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
-      <c r="K349" s="49">
+      <c r="K349" s="48">
         <v>45045</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>41395</v>
       </c>
@@ -11732,7 +11736,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>128</v>
@@ -11750,11 +11754,11 @@
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="49">
+      <c r="K351" s="48">
         <v>45061</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>121</v>
@@ -11774,7 +11778,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>49</v>
@@ -11792,11 +11796,11 @@
       </c>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
-      <c r="K353" s="49">
+      <c r="K353" s="48">
         <v>45070</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>243</v>
@@ -11812,9 +11816,9 @@
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
-      <c r="K354" s="49"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K354" s="48"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>41426</v>
       </c>
@@ -11836,11 +11840,11 @@
       </c>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="49">
+      <c r="K355" s="48">
         <v>45082</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>128</v>
@@ -11858,11 +11862,11 @@
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="49">
+      <c r="K356" s="48">
         <v>45095</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -11880,11 +11884,11 @@
       </c>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="49">
+      <c r="K357" s="48">
         <v>45102</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>244</v>
@@ -11904,7 +11908,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>41456</v>
       </c>
@@ -11928,7 +11932,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41487</v>
       </c>
@@ -11950,11 +11954,11 @@
       </c>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="49">
+      <c r="K360" s="48">
         <v>45144</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>61</v>
@@ -11976,7 +11980,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>246</v>
@@ -11996,7 +12000,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>41518</v>
       </c>
@@ -12018,11 +12022,11 @@
       </c>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
-      <c r="K363" s="49">
+      <c r="K363" s="48">
         <v>45196</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>128</v>
@@ -12044,7 +12048,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>247</v>
@@ -12064,7 +12068,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>41548</v>
       </c>
@@ -12086,11 +12090,11 @@
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="49">
+      <c r="K366" s="48">
         <v>45223</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12108,11 +12112,11 @@
       </c>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
-      <c r="K367" s="49">
+      <c r="K367" s="48">
         <v>45192</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>144</v>
@@ -12132,7 +12136,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>41579</v>
       </c>
@@ -12154,11 +12158,11 @@
       </c>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="49">
+      <c r="K369" s="48">
         <v>45249</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>61</v>
@@ -12180,7 +12184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>128</v>
@@ -12198,11 +12202,11 @@
       <c r="H371" s="39"/>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
-      <c r="K371" s="49">
+      <c r="K371" s="48">
         <v>45264</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>49</v>
@@ -12220,11 +12224,11 @@
       </c>
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
-      <c r="K372" s="49">
+      <c r="K372" s="48">
         <v>45263</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>251</v>
@@ -12242,9 +12246,9 @@
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
-      <c r="K373" s="49"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K373" s="48"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41609</v>
       </c>
@@ -12266,11 +12270,11 @@
       </c>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
-      <c r="K374" s="49">
+      <c r="K374" s="48">
         <v>45270</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>163</v>
@@ -12290,7 +12294,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>252</v>
@@ -12310,8 +12314,8 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="48" t="s">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="47" t="s">
         <v>198</v>
       </c>
       <c r="B377" s="20"/>
@@ -12332,7 +12336,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>41640</v>
       </c>
@@ -12352,7 +12356,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41671</v>
       </c>
@@ -12376,7 +12380,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41699</v>
       </c>
@@ -12400,7 +12404,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>128</v>
@@ -12420,7 +12424,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>128</v>
@@ -12440,7 +12444,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>61</v>
@@ -12460,7 +12464,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>255</v>
@@ -12480,7 +12484,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41730</v>
       </c>
@@ -12504,7 +12508,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>49</v>
@@ -12524,7 +12528,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>107</v>
@@ -12544,7 +12548,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>49</v>
@@ -12564,7 +12568,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>256</v>
@@ -12584,7 +12588,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41760</v>
       </c>
@@ -12608,7 +12612,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>121</v>
@@ -12626,7 +12630,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>121</v>
@@ -12644,7 +12648,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>257</v>
@@ -12664,7 +12668,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41791</v>
       </c>
@@ -12688,7 +12692,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>258</v>
@@ -12708,7 +12712,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>41821</v>
       </c>
@@ -12730,11 +12734,11 @@
       </c>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
-      <c r="K396" s="49">
+      <c r="K396" s="48">
         <v>45108</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>49</v>
@@ -12752,11 +12756,11 @@
       </c>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="49">
+      <c r="K397" s="48">
         <v>45121</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>259</v>
@@ -12776,7 +12780,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41852</v>
       </c>
@@ -12802,7 +12806,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>203</v>
@@ -12822,7 +12826,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>41883</v>
       </c>
@@ -12844,11 +12848,11 @@
       </c>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="49">
+      <c r="K401" s="48">
         <v>45172</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>128</v>
@@ -12866,11 +12870,11 @@
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="49">
+      <c r="K402" s="48">
         <v>45202</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>41913</v>
       </c>
@@ -12894,7 +12898,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>128</v>
@@ -12912,11 +12916,11 @@
       <c r="H404" s="39"/>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="49">
+      <c r="K404" s="48">
         <v>45213</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>49</v>
@@ -12934,11 +12938,11 @@
       </c>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="49">
+      <c r="K405" s="48">
         <v>45223</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>260</v>
@@ -12956,11 +12960,11 @@
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="49">
+      <c r="K406" s="48">
         <v>45226</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>41944</v>
       </c>
@@ -12984,7 +12988,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>261</v>
@@ -13002,11 +13006,11 @@
       <c r="H408" s="39"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="49">
+      <c r="K408" s="48">
         <v>45263</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>41974</v>
       </c>
@@ -13028,11 +13032,11 @@
       <c r="H409" s="39"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="49">
+      <c r="K409" s="48">
         <v>45271</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>262</v>
@@ -13052,8 +13056,8 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="48" t="s">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="47" t="s">
         <v>197</v>
       </c>
       <c r="B411" s="20"/>
@@ -13074,7 +13078,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>42005</v>
       </c>
@@ -13098,7 +13102,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42036</v>
       </c>
@@ -13122,7 +13126,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>42064</v>
       </c>
@@ -13144,11 +13148,11 @@
       <c r="H414" s="39"/>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="49">
+      <c r="K414" s="48">
         <v>44998</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>121</v>
@@ -13168,7 +13172,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>49</v>
@@ -13186,11 +13190,11 @@
       </c>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="49">
+      <c r="K416" s="48">
         <v>44994</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>61</v>
@@ -13212,7 +13216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>61</v>
@@ -13234,7 +13238,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>273</v>
@@ -13254,7 +13258,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>42095</v>
       </c>
@@ -13276,11 +13280,11 @@
       </c>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="49">
+      <c r="K420" s="48">
         <v>45029</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>49</v>
@@ -13298,11 +13302,11 @@
       </c>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="49">
+      <c r="K421" s="48">
         <v>45045</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>59</v>
@@ -13320,11 +13324,11 @@
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="49">
+      <c r="K422" s="48">
         <v>45031</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>162</v>
@@ -13344,7 +13348,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42125</v>
       </c>
@@ -13366,11 +13370,11 @@
       </c>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="49" t="s">
+      <c r="K424" s="48" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>49</v>
@@ -13388,11 +13392,11 @@
       </c>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="49">
+      <c r="K425" s="48">
         <v>45054</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>274</v>
@@ -13414,7 +13418,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>42156</v>
       </c>
@@ -13436,11 +13440,11 @@
       <c r="H427" s="39"/>
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
-      <c r="K427" s="49">
+      <c r="K427" s="48">
         <v>45095</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>275</v>
@@ -13460,7 +13464,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>42186</v>
       </c>
@@ -13484,7 +13488,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>79</v>
@@ -13506,7 +13510,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>283</v>
@@ -13526,7 +13530,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>42217</v>
       </c>
@@ -13548,11 +13552,11 @@
       </c>
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
-      <c r="K432" s="49">
+      <c r="K432" s="48">
         <v>45141</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13570,11 +13574,11 @@
       </c>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
-      <c r="K433" s="49">
+      <c r="K433" s="48">
         <v>45156</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>284</v>
@@ -13594,7 +13598,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>42248</v>
       </c>
@@ -13618,7 +13622,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>42278</v>
       </c>
@@ -13640,11 +13644,11 @@
       <c r="H436" s="39"/>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
-      <c r="K436" s="49">
+      <c r="K436" s="48">
         <v>45222</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>49</v>
@@ -13662,11 +13666,11 @@
       </c>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="49">
+      <c r="K437" s="48">
         <v>45215</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>286</v>
@@ -13686,7 +13690,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>42309</v>
       </c>
@@ -13708,11 +13712,11 @@
       <c r="H439" s="39"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="49">
+      <c r="K439" s="48">
         <v>45271</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>59</v>
@@ -13730,11 +13734,11 @@
       <c r="H440" s="39"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
-      <c r="K440" s="49">
+      <c r="K440" s="48">
         <v>45249</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>287</v>
@@ -13754,7 +13758,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>42339</v>
       </c>
@@ -13776,11 +13780,11 @@
       </c>
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
-      <c r="K442" s="49">
+      <c r="K442" s="48">
         <v>45274</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>49</v>
@@ -13798,11 +13802,11 @@
       </c>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="49">
+      <c r="K443" s="48">
         <v>45281</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>288</v>
@@ -13822,8 +13826,8 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="48" t="s">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="47" t="s">
         <v>272</v>
       </c>
       <c r="B445" s="20"/>
@@ -13844,7 +13848,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42370</v>
       </c>
@@ -13868,7 +13872,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>42401</v>
       </c>
@@ -13892,7 +13896,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42430</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>290</v>
@@ -13938,7 +13942,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42461</v>
       </c>
@@ -13962,7 +13966,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>121</v>
@@ -13982,7 +13986,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>53</v>
@@ -14004,7 +14008,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>292</v>
@@ -14024,7 +14028,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>42491</v>
       </c>
@@ -14046,11 +14050,11 @@
       </c>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="49">
+      <c r="K454" s="48">
         <v>45062</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -14068,11 +14072,11 @@
       </c>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="49">
+      <c r="K455" s="48">
         <v>45061</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -14090,11 +14094,11 @@
       </c>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="49">
+      <c r="K456" s="48">
         <v>45070</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>49</v>
@@ -14112,11 +14116,11 @@
       </c>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="49">
+      <c r="K457" s="48">
         <v>45083</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>293</v>
@@ -14136,7 +14140,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42522</v>
       </c>
@@ -14162,7 +14166,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>49</v>
@@ -14180,11 +14184,11 @@
       </c>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="49">
+      <c r="K460" s="48">
         <v>45101</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>49</v>
@@ -14202,11 +14206,11 @@
       </c>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="49">
+      <c r="K461" s="48">
         <v>45134</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>59</v>
@@ -14226,7 +14230,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>294</v>
@@ -14244,11 +14248,11 @@
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="49">
+      <c r="K463" s="48">
         <v>45116</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42552</v>
       </c>
@@ -14272,7 +14276,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>42583</v>
       </c>
@@ -14294,11 +14298,11 @@
       </c>
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
-      <c r="K465" s="49">
+      <c r="K465" s="48">
         <v>45139</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>49</v>
@@ -14316,11 +14320,11 @@
       </c>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="49">
+      <c r="K466" s="48">
         <v>45146</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>295</v>
@@ -14340,7 +14344,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>42614</v>
       </c>
@@ -14362,11 +14366,11 @@
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
-      <c r="K468" s="49">
+      <c r="K468" s="48">
         <v>45199</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>49</v>
@@ -14384,11 +14388,11 @@
       </c>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="49">
+      <c r="K469" s="48">
         <v>45184</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>129</v>
@@ -14408,7 +14412,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>42644</v>
       </c>
@@ -14430,11 +14434,11 @@
       <c r="H471" s="39"/>
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
-      <c r="K471" s="49">
+      <c r="K471" s="48">
         <v>45223</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>49</v>
@@ -14452,11 +14456,11 @@
       </c>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="49">
+      <c r="K472" s="48">
         <v>45224</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>49</v>
@@ -14474,11 +14478,11 @@
       </c>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="49">
+      <c r="K473" s="48">
         <v>45244</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>299</v>
@@ -14498,7 +14502,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>42675</v>
       </c>
@@ -14522,7 +14526,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>42705</v>
       </c>
@@ -14544,11 +14548,11 @@
       </c>
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
-      <c r="K476" s="49">
+      <c r="K476" s="48">
         <v>45272</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>301</v>
@@ -14568,8 +14572,8 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="48" t="s">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="47" t="s">
         <v>271</v>
       </c>
       <c r="B478" s="20"/>
@@ -14590,7 +14594,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>42736</v>
       </c>
@@ -14610,11 +14614,11 @@
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
-      <c r="K479" s="49">
+      <c r="K479" s="48">
         <v>44939</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>124</v>
@@ -14632,7 +14636,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>42767</v>
       </c>
@@ -14652,11 +14656,11 @@
       <c r="H481" s="39"/>
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
-      <c r="K481" s="49">
+      <c r="K481" s="48">
         <v>44985</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>121</v>
@@ -14676,7 +14680,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>191</v>
@@ -14694,7 +14698,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>42795</v>
       </c>
@@ -14716,11 +14720,11 @@
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
-      <c r="K484" s="49">
+      <c r="K484" s="48">
         <v>45002</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>121</v>
@@ -14740,7 +14744,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>61</v>
@@ -14762,7 +14766,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>305</v>
@@ -14782,7 +14786,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>42826</v>
       </c>
@@ -14804,11 +14808,11 @@
       </c>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
-      <c r="K488" s="49">
+      <c r="K488" s="48">
         <v>44999</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>61</v>
@@ -14830,7 +14834,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>49</v>
@@ -14848,11 +14852,11 @@
       </c>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="49">
+      <c r="K490" s="48">
         <v>45035</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>59</v>
@@ -14870,11 +14874,11 @@
       <c r="H491" s="39"/>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
-      <c r="K491" s="49">
+      <c r="K491" s="48">
         <v>45061</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>59</v>
@@ -14892,11 +14896,11 @@
       <c r="H492" s="39"/>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
-      <c r="K492" s="49">
+      <c r="K492" s="48">
         <v>45082</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>100</v>
@@ -14916,7 +14920,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>42856</v>
       </c>
@@ -14938,11 +14942,11 @@
       </c>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
-      <c r="K494" s="49">
+      <c r="K494" s="48">
         <v>45058</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -14960,11 +14964,11 @@
       </c>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="49">
+      <c r="K495" s="48">
         <v>45090</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>84</v>
@@ -14984,7 +14988,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>42887</v>
       </c>
@@ -15004,7 +15008,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>42917</v>
       </c>
@@ -15028,7 +15032,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>49</v>
@@ -15046,11 +15050,11 @@
       </c>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="49">
+      <c r="K499" s="48">
         <v>45134</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>49</v>
@@ -15068,11 +15072,11 @@
       </c>
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
-      <c r="K500" s="49">
+      <c r="K500" s="48">
         <v>45135</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>306</v>
@@ -15090,11 +15094,11 @@
       <c r="H501" s="39"/>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
-      <c r="K501" s="49">
+      <c r="K501" s="48">
         <v>45169</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>42948</v>
       </c>
@@ -15118,7 +15122,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>42979</v>
       </c>
@@ -15140,11 +15144,11 @@
       </c>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="49">
+      <c r="K503" s="48">
         <v>45173</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>61</v>
@@ -15166,7 +15170,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>309</v>
@@ -15186,7 +15190,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43009</v>
       </c>
@@ -15212,7 +15216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>121</v>
@@ -15232,7 +15236,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>49</v>
@@ -15250,11 +15254,11 @@
       </c>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="49">
+      <c r="K508" s="48">
         <v>45229</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>310</v>
@@ -15274,7 +15278,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>43040</v>
       </c>
@@ -15296,11 +15300,11 @@
       </c>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="49">
+      <c r="K510" s="48">
         <v>45247</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>59</v>
@@ -15318,11 +15322,11 @@
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="49">
+      <c r="K511" s="48">
         <v>45261</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15340,11 +15344,11 @@
       </c>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="49">
+      <c r="K512" s="48">
         <v>45267</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43070</v>
       </c>
@@ -15366,12 +15370,12 @@
       </c>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
-      <c r="K513" s="49">
+      <c r="K513" s="48">
         <v>45268</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="48" t="s">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="47" t="s">
         <v>270</v>
       </c>
       <c r="B514" s="20"/>
@@ -15392,7 +15396,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>43101</v>
       </c>
@@ -15414,11 +15418,11 @@
       </c>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="49">
+      <c r="K515" s="48">
         <v>44945</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>49</v>
@@ -15436,11 +15440,11 @@
       </c>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="49">
+      <c r="K516" s="48">
         <v>44946</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>43132</v>
       </c>
@@ -15460,7 +15464,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>43160</v>
       </c>
@@ -15482,11 +15486,11 @@
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="49">
+      <c r="K518" s="48">
         <v>45001</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>121</v>
@@ -15506,7 +15510,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>49</v>
@@ -15524,11 +15528,11 @@
       </c>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="49">
+      <c r="K520" s="48">
         <v>45000</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>49</v>
@@ -15546,11 +15550,11 @@
       </c>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="49">
+      <c r="K521" s="48">
         <v>45004</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>43191</v>
       </c>
@@ -15574,7 +15578,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>49</v>
@@ -15592,11 +15596,11 @@
       </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="49">
+      <c r="K523" s="48">
         <v>45032</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43221</v>
       </c>
@@ -15620,7 +15624,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>49</v>
@@ -15642,7 +15646,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>49</v>
@@ -15660,11 +15664,11 @@
       </c>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="49">
+      <c r="K526" s="48">
         <v>45057</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>68</v>
@@ -15682,11 +15686,11 @@
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="49">
+      <c r="K527" s="48">
         <v>45070</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43252</v>
       </c>
@@ -15710,7 +15714,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>49</v>
@@ -15728,11 +15732,11 @@
       </c>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="49">
+      <c r="K529" s="48">
         <v>45111</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>313</v>
@@ -15750,11 +15754,11 @@
       <c r="H530" s="39"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="49">
+      <c r="K530" s="48">
         <v>45090</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>43282</v>
       </c>
@@ -15780,7 +15784,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>49</v>
@@ -15798,11 +15802,11 @@
       </c>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="49">
+      <c r="K532" s="48">
         <v>45130</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>314</v>
@@ -15822,7 +15826,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>43313</v>
       </c>
@@ -15844,11 +15848,11 @@
       </c>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="49">
+      <c r="K534" s="48">
         <v>45151</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>43344</v>
       </c>
@@ -15872,7 +15876,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>43374</v>
       </c>
@@ -15894,11 +15898,11 @@
       </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="49">
+      <c r="K536" s="48">
         <v>45203</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>53</v>
@@ -15920,7 +15924,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>49</v>
@@ -15938,11 +15942,11 @@
       </c>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="49">
+      <c r="K538" s="48">
         <v>45210</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>49</v>
@@ -15960,11 +15964,11 @@
       </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="49">
+      <c r="K539" s="48">
         <v>45222</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>182</v>
@@ -15984,7 +15988,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>43405</v>
       </c>
@@ -16006,11 +16010,11 @@
       </c>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="49">
+      <c r="K541" s="48">
         <v>45239</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>319</v>
@@ -16030,7 +16034,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>43435</v>
       </c>
@@ -16054,7 +16058,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>49</v>
@@ -16072,11 +16076,11 @@
       </c>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="49">
+      <c r="K544" s="48">
         <v>45279</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>320</v>
@@ -16096,8 +16100,8 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="48" t="s">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A546" s="47" t="s">
         <v>269</v>
       </c>
       <c r="B546" s="20"/>
@@ -16118,7 +16122,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>43466</v>
       </c>
@@ -16138,7 +16142,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43497</v>
       </c>
@@ -16158,7 +16162,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>43525</v>
       </c>
@@ -16178,7 +16182,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>43556</v>
       </c>
@@ -16198,7 +16202,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43586</v>
       </c>
@@ -16224,7 +16228,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>121</v>
@@ -16244,7 +16248,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>43617</v>
       </c>
@@ -16266,11 +16270,11 @@
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="49">
+      <c r="K553" s="48">
         <v>45094</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>121</v>
@@ -16290,7 +16294,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>43647</v>
       </c>
@@ -16310,7 +16314,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>43678</v>
       </c>
@@ -16330,7 +16334,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>43709</v>
       </c>
@@ -16350,7 +16354,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>43739</v>
       </c>
@@ -16372,11 +16376,11 @@
       </c>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="49">
+      <c r="K558" s="48">
         <v>45207</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>53</v>
@@ -16398,7 +16402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>121</v>
@@ -16418,7 +16422,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>43770</v>
       </c>
@@ -16440,11 +16444,11 @@
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="49">
+      <c r="K561" s="48">
         <v>45252</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>61</v>
@@ -16466,7 +16470,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>43800</v>
       </c>
@@ -16486,8 +16490,8 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="48" t="s">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A564" s="47" t="s">
         <v>268</v>
       </c>
       <c r="B564" s="20"/>
@@ -16508,7 +16512,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>43831</v>
       </c>
@@ -16532,7 +16536,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>43862</v>
       </c>
@@ -16552,7 +16556,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>43891</v>
       </c>
@@ -16572,7 +16576,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>43922</v>
       </c>
@@ -16592,7 +16596,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>43952</v>
       </c>
@@ -16612,7 +16616,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>43983</v>
       </c>
@@ -16632,7 +16636,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>44013</v>
       </c>
@@ -16652,7 +16656,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>44044</v>
       </c>
@@ -16672,7 +16676,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>44075</v>
       </c>
@@ -16696,7 +16700,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>49</v>
@@ -16714,11 +16718,11 @@
       </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="49">
+      <c r="K574" s="48">
         <v>45185</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>44105</v>
       </c>
@@ -16738,7 +16742,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>44136</v>
       </c>
@@ -16758,7 +16762,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>44166</v>
       </c>
@@ -16784,7 +16788,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>49</v>
@@ -16802,11 +16806,11 @@
       </c>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="49">
+      <c r="K578" s="48">
         <v>45274</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>59</v>
@@ -16824,12 +16828,12 @@
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="49">
+      <c r="K579" s="48">
         <v>45278</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="48" t="s">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A580" s="47" t="s">
         <v>267</v>
       </c>
       <c r="B580" s="20"/>
@@ -16850,7 +16854,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>44197</v>
       </c>
@@ -16870,7 +16874,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>44228</v>
       </c>
@@ -16890,7 +16894,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>44256</v>
       </c>
@@ -16910,7 +16914,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>44287</v>
       </c>
@@ -16930,7 +16934,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>44317</v>
       </c>
@@ -16950,7 +16954,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>44348</v>
       </c>
@@ -16970,7 +16974,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>44378</v>
       </c>
@@ -16992,11 +16996,11 @@
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="49">
+      <c r="K587" s="48">
         <v>45128</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>44409</v>
       </c>
@@ -17016,7 +17020,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44440</v>
       </c>
@@ -17036,7 +17040,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>44470</v>
       </c>
@@ -17058,11 +17062,11 @@
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49">
+      <c r="K590" s="48">
         <v>45225</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>59</v>
@@ -17080,11 +17084,11 @@
       <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="49">
+      <c r="K591" s="48">
         <v>45239</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>44501</v>
       </c>
@@ -17106,11 +17110,11 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="49">
+      <c r="K592" s="48">
         <v>45246</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>328</v>
@@ -17130,7 +17134,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>59</v>
@@ -17148,11 +17152,11 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="49">
+      <c r="K594" s="48">
         <v>45270</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>59</v>
@@ -17170,11 +17174,11 @@
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="49">
+      <c r="K595" s="48">
         <v>45274</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>59</v>
@@ -17192,11 +17196,11 @@
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49">
+      <c r="K596" s="48">
         <v>45291</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>44531</v>
       </c>
@@ -17216,8 +17220,8 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="48" t="s">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A598" s="47" t="s">
         <v>266</v>
       </c>
       <c r="B598" s="20"/>
@@ -17238,7 +17242,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>44562</v>
       </c>
@@ -17258,7 +17262,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>44593</v>
       </c>
@@ -17278,7 +17282,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>44621</v>
       </c>
@@ -17298,7 +17302,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>44652</v>
       </c>
@@ -17318,7 +17322,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44682</v>
       </c>
@@ -17340,11 +17344,11 @@
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="49">
+      <c r="K603" s="48">
         <v>45084</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>121</v>
@@ -17364,7 +17368,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>44713</v>
       </c>
@@ -17384,7 +17388,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>44743</v>
       </c>
@@ -17404,7 +17408,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>44774</v>
       </c>
@@ -17426,11 +17430,11 @@
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="49">
+      <c r="K607" s="48">
         <v>45153</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>121</v>
@@ -17450,7 +17454,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>59</v>
@@ -17468,11 +17472,11 @@
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="49">
+      <c r="K609" s="48">
         <v>45160</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>44805</v>
       </c>
@@ -17492,7 +17496,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44835</v>
       </c>
@@ -17512,11 +17516,11 @@
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="50">
+      <c r="K611" s="49">
         <v>44858</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>59</v>
@@ -17534,11 +17538,11 @@
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="50">
+      <c r="K612" s="49">
         <v>44862</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>44866</v>
       </c>
@@ -17558,7 +17562,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>44896</v>
       </c>
@@ -17580,12 +17584,12 @@
       <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
-      <c r="K614" s="50">
+      <c r="K614" s="49">
         <v>44911</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="48" t="s">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A615" s="47" t="s">
         <v>334</v>
       </c>
       <c r="B615" s="20"/>
@@ -17602,7 +17606,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>44927</v>
       </c>
@@ -17622,7 +17626,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>44958</v>
       </c>
@@ -17642,7 +17646,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>44986</v>
       </c>
@@ -17662,11 +17666,11 @@
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
-      <c r="K618" s="50">
+      <c r="K618" s="49">
         <v>45014</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>45017</v>
       </c>
@@ -17686,39 +17690,41 @@
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
-      <c r="K619" s="50">
+      <c r="K619" s="49">
         <v>45041</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>45047</v>
       </c>
       <c r="B620" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C620" s="13"/>
+      <c r="C620" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D620" s="39">
         <v>1</v>
       </c>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
-      <c r="G620" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G620" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="50">
+      <c r="K620" s="49">
         <v>45061</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A621" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B621" s="20"/>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A621" s="40"/>
+      <c r="B621" s="20" t="s">
+        <v>339</v>
+      </c>
       <c r="C621" s="13"/>
       <c r="D621" s="39"/>
       <c r="E621" s="9"/>
@@ -17730,11 +17736,13 @@
       <c r="H621" s="39"/>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="20"/>
-    </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K621" s="49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17750,9 +17758,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17768,9 +17776,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17786,9 +17794,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17804,9 +17812,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17822,9 +17830,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17840,9 +17848,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17857,326 +17865,6 @@
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
-    </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B629" s="20"/>
-      <c r="C629" s="13"/>
-      <c r="D629" s="39"/>
-      <c r="E629" s="9"/>
-      <c r="F629" s="20"/>
-      <c r="G629" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H629" s="39"/>
-      <c r="I629" s="9"/>
-      <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
-    </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B630" s="20"/>
-      <c r="C630" s="13"/>
-      <c r="D630" s="39"/>
-      <c r="E630" s="9"/>
-      <c r="F630" s="20"/>
-      <c r="G630" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H630" s="39"/>
-      <c r="I630" s="9"/>
-      <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
-    </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B631" s="20"/>
-      <c r="C631" s="13"/>
-      <c r="D631" s="39"/>
-      <c r="E631" s="9"/>
-      <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H631" s="39"/>
-      <c r="I631" s="9"/>
-      <c r="J631" s="11"/>
-      <c r="K631" s="20"/>
-    </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B632" s="20"/>
-      <c r="C632" s="13"/>
-      <c r="D632" s="39"/>
-      <c r="E632" s="9"/>
-      <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H632" s="39"/>
-      <c r="I632" s="9"/>
-      <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
-    </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B633" s="20"/>
-      <c r="C633" s="13"/>
-      <c r="D633" s="39"/>
-      <c r="E633" s="9"/>
-      <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H633" s="39"/>
-      <c r="I633" s="9"/>
-      <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
-    </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B634" s="20"/>
-      <c r="C634" s="13"/>
-      <c r="D634" s="39"/>
-      <c r="E634" s="9"/>
-      <c r="F634" s="20"/>
-      <c r="G634" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H634" s="39"/>
-      <c r="I634" s="9"/>
-      <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
-    </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B635" s="20"/>
-      <c r="C635" s="13"/>
-      <c r="D635" s="39"/>
-      <c r="E635" s="9"/>
-      <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H635" s="39"/>
-      <c r="I635" s="9"/>
-      <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
-    </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B636" s="20"/>
-      <c r="C636" s="13"/>
-      <c r="D636" s="39"/>
-      <c r="E636" s="9"/>
-      <c r="F636" s="20"/>
-      <c r="G636" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H636" s="39"/>
-      <c r="I636" s="9"/>
-      <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40"/>
-      <c r="B637" s="20"/>
-      <c r="C637" s="13"/>
-      <c r="D637" s="39"/>
-      <c r="E637" s="9"/>
-      <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H637" s="39"/>
-      <c r="I637" s="9"/>
-      <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
-    </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40"/>
-      <c r="B638" s="20"/>
-      <c r="C638" s="13"/>
-      <c r="D638" s="39"/>
-      <c r="E638" s="9"/>
-      <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H638" s="39"/>
-      <c r="I638" s="9"/>
-      <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
-    </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="40"/>
-      <c r="B639" s="20"/>
-      <c r="C639" s="13"/>
-      <c r="D639" s="39"/>
-      <c r="E639" s="9"/>
-      <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H639" s="39"/>
-      <c r="I639" s="9"/>
-      <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
-    </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40"/>
-      <c r="B640" s="20"/>
-      <c r="C640" s="13"/>
-      <c r="D640" s="39"/>
-      <c r="E640" s="9"/>
-      <c r="F640" s="20"/>
-      <c r="G640" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H640" s="39"/>
-      <c r="I640" s="9"/>
-      <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="40"/>
-      <c r="B641" s="20"/>
-      <c r="C641" s="13"/>
-      <c r="D641" s="39"/>
-      <c r="E641" s="9"/>
-      <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H641" s="39"/>
-      <c r="I641" s="9"/>
-      <c r="J641" s="11"/>
-      <c r="K641" s="20"/>
-    </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="40"/>
-      <c r="B642" s="20"/>
-      <c r="C642" s="13"/>
-      <c r="D642" s="39"/>
-      <c r="E642" s="9"/>
-      <c r="F642" s="20"/>
-      <c r="G642" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H642" s="39"/>
-      <c r="I642" s="9"/>
-      <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
-    </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="40"/>
-      <c r="B643" s="20"/>
-      <c r="C643" s="13"/>
-      <c r="D643" s="39"/>
-      <c r="E643" s="9"/>
-      <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H643" s="39"/>
-      <c r="I643" s="9"/>
-      <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
-    </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="40"/>
-      <c r="B644" s="20"/>
-      <c r="C644" s="13"/>
-      <c r="D644" s="39"/>
-      <c r="E644" s="9"/>
-      <c r="F644" s="20"/>
-      <c r="G644" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H644" s="39"/>
-      <c r="I644" s="9"/>
-      <c r="J644" s="11"/>
-      <c r="K644" s="20"/>
-    </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="40"/>
-      <c r="B645" s="20"/>
-      <c r="C645" s="13"/>
-      <c r="D645" s="39"/>
-      <c r="E645" s="9"/>
-      <c r="F645" s="20"/>
-      <c r="G645" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H645" s="39"/>
-      <c r="I645" s="9"/>
-      <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
-    </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="40"/>
-      <c r="B646" s="20"/>
-      <c r="C646" s="13"/>
-      <c r="D646" s="39"/>
-      <c r="E646" s="9"/>
-      <c r="F646" s="20"/>
-      <c r="G646" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H646" s="39"/>
-      <c r="I646" s="9"/>
-      <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
-    </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" s="41"/>
-      <c r="B647" s="15"/>
-      <c r="C647" s="42"/>
-      <c r="D647" s="43"/>
-      <c r="E647" s="9"/>
-      <c r="F647" s="15"/>
-      <c r="G647" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H647" s="43"/>
-      <c r="I647" s="9"/>
-      <c r="J647" s="12"/>
-      <c r="K647" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18193,10 +17881,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18219,42 +17907,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18270,7 +17958,7 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -18279,11 +17967,11 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -18299,7 +17987,7 @@
       <c r="F3">
         <v>37</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0.20200000000000001</v>
       </c>
@@ -18310,22 +17998,22 @@
         <f>J4-1</f>
         <v>25</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="44">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>0.20799999999999974</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18338,15 +18026,15 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18359,7 +18047,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
@@ -18373,7 +18061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18399,7 +18087,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18425,7 +18113,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18451,7 +18139,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18477,7 +18165,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18503,7 +18191,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18529,7 +18217,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18555,7 +18243,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18575,7 +18263,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18595,7 +18283,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18615,7 +18303,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18636,7 +18324,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18657,7 +18345,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18678,7 +18366,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18699,7 +18387,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18720,7 +18408,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18741,7 +18429,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18762,7 +18450,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18783,7 +18471,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18804,7 +18492,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18825,7 +18513,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18846,7 +18534,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18867,7 +18555,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18888,7 +18576,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18909,7 +18597,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18930,7 +18618,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18951,7 +18639,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18972,7 +18660,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18993,7 +18681,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19014,7 +18702,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19035,7 +18723,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19044,7 +18732,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19053,7 +18741,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19062,7 +18750,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19071,7 +18759,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19080,7 +18768,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19089,7 +18777,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19098,7 +18786,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19107,7 +18795,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19116,7 +18804,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19125,7 +18813,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19134,7 +18822,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19143,7 +18831,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19152,7 +18840,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19161,7 +18849,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19170,7 +18858,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19179,7 +18867,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19188,7 +18876,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19197,7 +18885,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19206,7 +18894,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19215,7 +18903,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19224,7 +18912,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19233,7 +18921,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19242,7 +18930,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19251,7 +18939,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19260,7 +18948,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19269,7 +18957,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19278,7 +18966,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19287,7 +18975,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19296,7 +18984,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MANALO, EDITHA T..xlsx
+++ b/REGULAR/MANALO, EDITHA T..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="340">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1919,7 +1919,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1962,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2026,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2086,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2152,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2215,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2313,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2372,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2437,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2480,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2555,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2807,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2865,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2931,7 +2931,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2987,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3062,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3105,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3171,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3227,7 +3227,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3325,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3388,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3454,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K628" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K629" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3832,12 +3832,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K628"/>
+  <dimension ref="A2:K629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A615" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E623" sqref="E623"/>
+      <selection pane="bottomLeft" activeCell="K624" sqref="K624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17784,10 +17784,10 @@
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A624" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B624" s="20"/>
+      <c r="A624" s="40"/>
+      <c r="B624" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
       <c r="E624" s="9"/>
@@ -17799,11 +17799,13 @@
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
-      <c r="K624" s="20"/>
+      <c r="K624" s="49">
+        <v>45114</v>
+      </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17821,7 +17823,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17839,7 +17841,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17857,7 +17859,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17872,6 +17874,24 @@
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B629" s="20"/>
+      <c r="C629" s="13"/>
+      <c r="D629" s="39"/>
+      <c r="E629" s="9"/>
+      <c r="F629" s="20"/>
+      <c r="G629" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H629" s="39"/>
+      <c r="I629" s="9"/>
+      <c r="J629" s="11"/>
+      <c r="K629" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
